--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW25.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="ShearF-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="ShearF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9926309579722642</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9519747158388456</v>
+      </c>
+      <c r="D16">
+        <v>1.342963186989</v>
+      </c>
+      <c r="E16">
+        <v>0.8977606274731419</v>
+      </c>
+      <c r="F16">
+        <v>0.9519747158388456</v>
+      </c>
+      <c r="G16">
+        <v>1.176649270150119</v>
+      </c>
+      <c r="H16">
+        <v>0.7618749660278448</v>
+      </c>
+      <c r="I16">
+        <v>0.9090833387038024</v>
+      </c>
+      <c r="J16">
+        <v>1.342963186989</v>
+      </c>
+      <c r="K16">
+        <v>1.120361907231071</v>
+      </c>
+      <c r="L16">
+        <v>1.036168311534958</v>
+      </c>
+      <c r="M16">
+        <v>1.006717684197125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9519747158388456</v>

--- a/JupyterNotebooks/AveragedIntensites/ShearF-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/ShearF-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.682847999999999</v>
+        <v>0.9519747158388456</v>
       </c>
       <c r="D10">
-        <v>1.878520000000002</v>
+        <v>1.342963186989</v>
       </c>
       <c r="E10">
-        <v>0.8441439999999991</v>
+        <v>0.8977606274731419</v>
       </c>
       <c r="F10">
-        <v>0.682847999999999</v>
+        <v>0.9519747158388456</v>
       </c>
       <c r="G10">
-        <v>1.416948000000001</v>
+        <v>1.176649270150119</v>
       </c>
       <c r="H10">
-        <v>0.6626920000000003</v>
+        <v>0.7618749660278448</v>
       </c>
       <c r="I10">
-        <v>0.7968359999999998</v>
+        <v>0.9090833387038024</v>
       </c>
       <c r="J10">
-        <v>1.878520000000002</v>
+        <v>1.342963186989</v>
       </c>
       <c r="K10">
-        <v>1.361332</v>
+        <v>1.120361907231071</v>
       </c>
       <c r="L10">
-        <v>1.02209</v>
+        <v>1.036168311534958</v>
       </c>
       <c r="M10">
-        <v>1.046998</v>
+        <v>1.006717684197125</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.53</v>
+        <v>0.9716844155471395</v>
       </c>
       <c r="D11">
-        <v>2.569312500000001</v>
+        <v>0.8499678579640696</v>
       </c>
       <c r="E11">
-        <v>0.68</v>
+        <v>1.063384785178556</v>
       </c>
       <c r="F11">
-        <v>0.53</v>
+        <v>0.9716844155471395</v>
       </c>
       <c r="G11">
-        <v>1.78</v>
+        <v>0.883128892611667</v>
       </c>
       <c r="H11">
-        <v>0.25</v>
+        <v>1.212511202825416</v>
       </c>
       <c r="I11">
-        <v>0.6290374999999999</v>
+        <v>1.040384539706343</v>
       </c>
       <c r="J11">
-        <v>2.569312500000001</v>
+        <v>0.8499678579640696</v>
       </c>
       <c r="K11">
-        <v>1.624656250000001</v>
+        <v>0.9566763215713128</v>
       </c>
       <c r="L11">
-        <v>1.077328125</v>
+        <v>0.9641803685592262</v>
       </c>
       <c r="M11">
-        <v>1.073058333333333</v>
+        <v>1.003510282305532</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7238698827776012</v>
+        <v>0.9707020074869542</v>
       </c>
       <c r="D12">
-        <v>1.911120490086399</v>
+        <v>0.8508973825589918</v>
       </c>
       <c r="E12">
-        <v>0.8107580334080021</v>
+        <v>1.0634896530912</v>
       </c>
       <c r="F12">
-        <v>0.7238698827776012</v>
+        <v>0.9707020074869542</v>
       </c>
       <c r="G12">
-        <v>1.450050220851193</v>
+        <v>0.8835199698801467</v>
       </c>
       <c r="H12">
-        <v>0.5620702789632017</v>
+        <v>1.212863633608251</v>
       </c>
       <c r="I12">
-        <v>0.7842249597952017</v>
+        <v>1.040215858736938</v>
       </c>
       <c r="J12">
-        <v>1.911120490086399</v>
+        <v>0.8508973825589918</v>
       </c>
       <c r="K12">
-        <v>1.3609392617472</v>
+        <v>0.9571935178250959</v>
       </c>
       <c r="L12">
-        <v>1.042404572262401</v>
+        <v>0.9639477626560251</v>
       </c>
       <c r="M12">
-        <v>1.040348977646933</v>
+        <v>1.003614750893747</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9986997275013679</v>
+        <v>0.9715377700930535</v>
       </c>
       <c r="D13">
-        <v>0.9945532762147361</v>
+        <v>0.8502458133638823</v>
       </c>
       <c r="E13">
-        <v>0.9949284922500561</v>
+        <v>1.063294936125409</v>
       </c>
       <c r="F13">
-        <v>0.9986997275013679</v>
+        <v>0.9715377700930535</v>
       </c>
       <c r="G13">
-        <v>0.9978811483317608</v>
+        <v>0.8832899050731091</v>
       </c>
       <c r="H13">
-        <v>0.9928038756975919</v>
+        <v>1.212277225737125</v>
       </c>
       <c r="I13">
-        <v>0.9951680834053541</v>
+        <v>1.040316574218514</v>
       </c>
       <c r="J13">
-        <v>0.9945532762147361</v>
+        <v>0.8502458133638823</v>
       </c>
       <c r="K13">
-        <v>0.9947408842323961</v>
+        <v>0.9567703747446454</v>
       </c>
       <c r="L13">
-        <v>0.996720305866882</v>
+        <v>0.9641540724188494</v>
       </c>
       <c r="M13">
-        <v>0.9956724339001445</v>
+        <v>1.003493704101849</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.00524532515088</v>
+        <v>0.682847999999999</v>
       </c>
       <c r="D14">
-        <v>0.9528563589743533</v>
+        <v>1.878520000000002</v>
       </c>
       <c r="E14">
-        <v>1.007285047498374</v>
+        <v>0.8441439999999991</v>
       </c>
       <c r="F14">
-        <v>1.00524532515088</v>
+        <v>0.682847999999999</v>
       </c>
       <c r="G14">
-        <v>0.9720768080900395</v>
+        <v>1.416948000000001</v>
       </c>
       <c r="H14">
-        <v>1.026382233025984</v>
+        <v>0.6626920000000003</v>
       </c>
       <c r="I14">
-        <v>1.007056365011481</v>
+        <v>0.7968359999999998</v>
       </c>
       <c r="J14">
-        <v>0.9528563589743533</v>
+        <v>1.878520000000002</v>
       </c>
       <c r="K14">
-        <v>0.9800707032363636</v>
+        <v>1.361332</v>
       </c>
       <c r="L14">
-        <v>0.992658014193622</v>
+        <v>1.02209</v>
       </c>
       <c r="M14">
-        <v>0.9951503562918519</v>
+        <v>1.046998</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.033568193963996</v>
+        <v>0.53</v>
       </c>
       <c r="D15">
-        <v>0.8490641707221313</v>
+        <v>2.569312500000001</v>
       </c>
       <c r="E15">
-        <v>1.029746599375147</v>
+        <v>0.68</v>
       </c>
       <c r="F15">
-        <v>1.033568193963996</v>
+        <v>0.53</v>
       </c>
       <c r="G15">
-        <v>0.9086648098728471</v>
+        <v>1.78</v>
       </c>
       <c r="H15">
-        <v>1.099261416493536</v>
+        <v>0.25</v>
       </c>
       <c r="I15">
-        <v>1.035480557405926</v>
+        <v>0.6290374999999999</v>
       </c>
       <c r="J15">
-        <v>0.8490641707221313</v>
+        <v>2.569312500000001</v>
       </c>
       <c r="K15">
-        <v>0.9394053850486392</v>
+        <v>1.624656250000001</v>
       </c>
       <c r="L15">
-        <v>0.9864867895063176</v>
+        <v>1.077328125</v>
       </c>
       <c r="M15">
-        <v>0.9926309579722642</v>
+        <v>1.073058333333333</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9519747158388456</v>
+        <v>0.7238698827776012</v>
       </c>
       <c r="D16">
-        <v>1.342963186989</v>
+        <v>1.911120490086399</v>
       </c>
       <c r="E16">
-        <v>0.8977606274731419</v>
+        <v>0.8107580334080021</v>
       </c>
       <c r="F16">
-        <v>0.9519747158388456</v>
+        <v>0.7238698827776012</v>
       </c>
       <c r="G16">
-        <v>1.176649270150119</v>
+        <v>1.450050220851193</v>
       </c>
       <c r="H16">
-        <v>0.7618749660278448</v>
+        <v>0.5620702789632017</v>
       </c>
       <c r="I16">
-        <v>0.9090833387038024</v>
+        <v>0.7842249597952017</v>
       </c>
       <c r="J16">
-        <v>1.342963186989</v>
+        <v>1.911120490086399</v>
       </c>
       <c r="K16">
-        <v>1.120361907231071</v>
+        <v>1.3609392617472</v>
       </c>
       <c r="L16">
-        <v>1.036168311534958</v>
+        <v>1.042404572262401</v>
       </c>
       <c r="M16">
-        <v>1.006717684197125</v>
+        <v>1.040348977646933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9986997275013679</v>
+      </c>
+      <c r="D17">
+        <v>0.9945532762147361</v>
+      </c>
+      <c r="E17">
+        <v>0.9949284922500561</v>
+      </c>
+      <c r="F17">
+        <v>0.9986997275013679</v>
+      </c>
+      <c r="G17">
+        <v>0.9978811483317608</v>
+      </c>
+      <c r="H17">
+        <v>0.9928038756975919</v>
+      </c>
+      <c r="I17">
+        <v>0.9951680834053541</v>
+      </c>
+      <c r="J17">
+        <v>0.9945532762147361</v>
+      </c>
+      <c r="K17">
+        <v>0.9947408842323961</v>
+      </c>
+      <c r="L17">
+        <v>0.996720305866882</v>
+      </c>
+      <c r="M17">
+        <v>0.9956724339001445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.00524532515088</v>
+      </c>
+      <c r="D18">
+        <v>0.9528563589743533</v>
+      </c>
+      <c r="E18">
+        <v>1.007285047498374</v>
+      </c>
+      <c r="F18">
+        <v>1.00524532515088</v>
+      </c>
+      <c r="G18">
+        <v>0.9720768080900395</v>
+      </c>
+      <c r="H18">
+        <v>1.026382233025984</v>
+      </c>
+      <c r="I18">
+        <v>1.007056365011481</v>
+      </c>
+      <c r="J18">
+        <v>0.9528563589743533</v>
+      </c>
+      <c r="K18">
+        <v>0.9800707032363636</v>
+      </c>
+      <c r="L18">
+        <v>0.992658014193622</v>
+      </c>
+      <c r="M18">
+        <v>0.9951503562918519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.033568193963996</v>
+      </c>
+      <c r="D19">
+        <v>0.8490641707221313</v>
+      </c>
+      <c r="E19">
+        <v>1.029746599375147</v>
+      </c>
+      <c r="F19">
+        <v>1.033568193963996</v>
+      </c>
+      <c r="G19">
+        <v>0.9086648098728471</v>
+      </c>
+      <c r="H19">
+        <v>1.099261416493536</v>
+      </c>
+      <c r="I19">
+        <v>1.035480557405926</v>
+      </c>
+      <c r="J19">
+        <v>0.8490641707221313</v>
+      </c>
+      <c r="K19">
+        <v>0.9394053850486392</v>
+      </c>
+      <c r="L19">
+        <v>0.9864867895063176</v>
+      </c>
+      <c r="M19">
+        <v>0.9926309579722642</v>
       </c>
     </row>
   </sheetData>
